--- a/SonarLysaFX/src/test/resources/Suivi_Quality_GateTest.xlsx
+++ b/SonarLysaFX/src/test/resources/Suivi_Quality_GateTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="20985" windowHeight="11280" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="20985" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Anomalies closes" sheetId="38" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="SUIVI Qualité" sheetId="71" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Anomalies closes'!$A$1:$V$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Anomalies closes'!$A$1:$W$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SUIVI Qualité'!$G$1:$G$12</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="375">
   <si>
     <t>Edition</t>
   </si>
@@ -1144,6 +1144,9 @@
   </si>
   <si>
     <t>Abandonné</t>
+  </si>
+  <si>
+    <t>NPC</t>
   </si>
 </sst>
 </file>
@@ -3005,10 +3008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,20 +3026,21 @@
     <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="14.140625" customWidth="1"/>
-    <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="20" width="14.140625" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -3071,43 +3075,46 @@
         <v>257</v>
       </c>
       <c r="L1" s="178" t="s">
+        <v>374</v>
+      </c>
+      <c r="M1" s="178" t="s">
         <v>262</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="178" t="s">
+      <c r="P1" s="178" t="s">
         <v>219</v>
       </c>
-      <c r="P1" s="178" t="s">
+      <c r="Q1" s="178" t="s">
         <v>258</v>
       </c>
-      <c r="Q1" s="178" t="s">
+      <c r="R1" s="178" t="s">
         <v>253</v>
       </c>
-      <c r="R1" s="178" t="s">
+      <c r="S1" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="S1" s="178" t="s">
+      <c r="T1" s="178" t="s">
         <v>247</v>
       </c>
-      <c r="T1" s="178" t="s">
+      <c r="U1" s="178" t="s">
         <v>261</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="178" t="s">
+      <c r="X1" s="178" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>73</v>
       </c>
@@ -3139,29 +3146,30 @@
         <v>222</v>
       </c>
       <c r="K2" s="228"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="228"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="31">
+      <c r="O2" s="31">
         <v>248077</v>
       </c>
-      <c r="O2" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="P2" s="215"/>
+      <c r="P2" s="31" t="s">
+        <v>222</v>
+      </c>
       <c r="Q2" s="215"/>
       <c r="R2" s="215"/>
       <c r="S2" s="215"/>
       <c r="T2" s="215"/>
-      <c r="U2" s="28" t="s">
+      <c r="U2" s="215"/>
+      <c r="V2" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="W2" s="28" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>73</v>
       </c>
@@ -3193,27 +3201,28 @@
         <v>222</v>
       </c>
       <c r="K3" s="228"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33">
+      <c r="L3" s="228"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33">
         <v>248089</v>
       </c>
-      <c r="O3" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="P3" s="216"/>
+      <c r="P3" s="33" t="s">
+        <v>222</v>
+      </c>
       <c r="Q3" s="216"/>
       <c r="R3" s="216"/>
       <c r="S3" s="216"/>
       <c r="T3" s="216"/>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="216"/>
+      <c r="V3" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="V3" s="28" t="s">
+      <c r="W3" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>73</v>
       </c>
@@ -3245,29 +3254,30 @@
         <v>222</v>
       </c>
       <c r="K4" s="228"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="32" t="s">
+      <c r="L4" s="228"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="N4" s="32">
+      <c r="O4" s="32">
         <v>307394</v>
       </c>
-      <c r="O4" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="P4" s="217"/>
+      <c r="P4" s="32" t="s">
+        <v>222</v>
+      </c>
       <c r="Q4" s="217"/>
       <c r="R4" s="217"/>
       <c r="S4" s="217"/>
       <c r="T4" s="217"/>
-      <c r="U4" s="28" t="s">
+      <c r="U4" s="217"/>
+      <c r="V4" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="V4" s="28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W4" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>73</v>
       </c>
@@ -3299,27 +3309,28 @@
         <v>222</v>
       </c>
       <c r="K5" s="229"/>
-      <c r="L5" s="218"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18">
+      <c r="L5" s="229"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18">
         <v>268009</v>
       </c>
-      <c r="O5" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="P5" s="218"/>
+      <c r="P5" s="18" t="s">
+        <v>222</v>
+      </c>
       <c r="Q5" s="218"/>
       <c r="R5" s="218"/>
       <c r="S5" s="218"/>
       <c r="T5" s="218"/>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="218"/>
+      <c r="V5" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="W5" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>53</v>
       </c>
@@ -3351,27 +3362,28 @@
         <v>222</v>
       </c>
       <c r="K6" s="229"/>
-      <c r="L6" s="219"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14">
+      <c r="L6" s="229"/>
+      <c r="M6" s="219"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14">
         <v>298836</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="P6" s="219"/>
+      <c r="P6" s="14" t="s">
+        <v>222</v>
+      </c>
       <c r="Q6" s="219"/>
       <c r="R6" s="219"/>
       <c r="S6" s="219"/>
       <c r="T6" s="219"/>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="219"/>
+      <c r="V6" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="V6" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="W6" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>73</v>
       </c>
@@ -3403,29 +3415,30 @@
         <v>225</v>
       </c>
       <c r="K7" s="230"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="34" t="s">
+      <c r="L7" s="230"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="N7" s="34">
+      <c r="O7" s="34">
         <v>294406</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="P7" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="220"/>
       <c r="Q7" s="220"/>
       <c r="R7" s="220"/>
       <c r="S7" s="220"/>
       <c r="T7" s="220"/>
-      <c r="U7" s="29" t="s">
+      <c r="U7" s="220"/>
+      <c r="V7" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="V7" s="29" t="s">
+      <c r="W7" s="29" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>103</v>
       </c>
@@ -3457,27 +3470,28 @@
         <v>222</v>
       </c>
       <c r="K8" s="229"/>
-      <c r="L8" s="221"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20">
+      <c r="L8" s="229"/>
+      <c r="M8" s="221"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
         <v>292795</v>
       </c>
-      <c r="O8" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="P8" s="221"/>
+      <c r="P8" s="20" t="s">
+        <v>222</v>
+      </c>
       <c r="Q8" s="221"/>
       <c r="R8" s="221"/>
       <c r="S8" s="221"/>
       <c r="T8" s="221"/>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="221"/>
+      <c r="V8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="V8" s="19" t="s">
+      <c r="W8" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>53</v>
       </c>
@@ -3509,27 +3523,28 @@
         <v>222</v>
       </c>
       <c r="K9" s="229"/>
-      <c r="L9" s="222"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15">
+      <c r="L9" s="229"/>
+      <c r="M9" s="222"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15">
         <v>294337</v>
       </c>
-      <c r="O9" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="P9" s="222"/>
+      <c r="P9" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="Q9" s="222"/>
       <c r="R9" s="222"/>
       <c r="S9" s="222"/>
       <c r="T9" s="222"/>
-      <c r="U9" s="21" t="s">
+      <c r="U9" s="222"/>
+      <c r="V9" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="W9" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>62</v>
       </c>
@@ -3561,27 +3576,28 @@
         <v>222</v>
       </c>
       <c r="K10" s="228"/>
-      <c r="L10" s="223"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36">
+      <c r="L10" s="228"/>
+      <c r="M10" s="223"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36">
         <v>285909</v>
       </c>
-      <c r="O10" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="P10" s="223"/>
+      <c r="P10" s="36" t="s">
+        <v>222</v>
+      </c>
       <c r="Q10" s="223"/>
       <c r="R10" s="223"/>
       <c r="S10" s="223"/>
       <c r="T10" s="223"/>
-      <c r="U10" s="28" t="s">
+      <c r="U10" s="223"/>
+      <c r="V10" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="V10" s="28" t="s">
+      <c r="W10" s="28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>73</v>
       </c>
@@ -3613,29 +3629,30 @@
         <v>222</v>
       </c>
       <c r="K11" s="229"/>
-      <c r="L11" s="224"/>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="229"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="N11" s="23">
+      <c r="O11" s="23">
         <v>302782</v>
       </c>
-      <c r="O11" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="P11" s="224"/>
+      <c r="P11" s="23" t="s">
+        <v>222</v>
+      </c>
       <c r="Q11" s="224"/>
       <c r="R11" s="224"/>
       <c r="S11" s="224"/>
       <c r="T11" s="224"/>
-      <c r="U11" s="22" t="s">
+      <c r="U11" s="224"/>
+      <c r="V11" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="V11" s="22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W11" s="22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>222</v>
       </c>
@@ -3667,29 +3684,30 @@
         <v>225</v>
       </c>
       <c r="K12" s="230"/>
-      <c r="L12" s="225"/>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="230"/>
+      <c r="M12" s="225"/>
+      <c r="N12" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="N12" s="25">
+      <c r="O12" s="25">
         <v>310737</v>
       </c>
-      <c r="O12" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="P12" s="225"/>
+      <c r="P12" s="25" t="s">
+        <v>222</v>
+      </c>
       <c r="Q12" s="225"/>
       <c r="R12" s="225"/>
       <c r="S12" s="225"/>
       <c r="T12" s="225"/>
-      <c r="U12" s="24" t="s">
+      <c r="U12" s="225"/>
+      <c r="V12" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="V12" s="24" t="s">
+      <c r="W12" s="24" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>62</v>
       </c>
@@ -3721,27 +3739,28 @@
         <v>222</v>
       </c>
       <c r="K13" s="229"/>
-      <c r="L13" s="226"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35">
+      <c r="L13" s="229"/>
+      <c r="M13" s="226"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35">
         <v>292625</v>
       </c>
-      <c r="O13" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="P13" s="226"/>
+      <c r="P13" s="35" t="s">
+        <v>222</v>
+      </c>
       <c r="Q13" s="226"/>
       <c r="R13" s="226"/>
       <c r="S13" s="226"/>
       <c r="T13" s="226"/>
-      <c r="U13" s="30" t="s">
+      <c r="U13" s="226"/>
+      <c r="V13" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="V13" s="30" t="s">
+      <c r="W13" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>73</v>
       </c>
@@ -3773,59 +3792,60 @@
         <v>222</v>
       </c>
       <c r="K14" s="228"/>
-      <c r="L14" s="227"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27">
+      <c r="L14" s="228"/>
+      <c r="M14" s="227"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27">
         <v>294604</v>
       </c>
-      <c r="O14" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="P14" s="227"/>
+      <c r="P14" s="27" t="s">
+        <v>222</v>
+      </c>
       <c r="Q14" s="227"/>
       <c r="R14" s="227"/>
       <c r="S14" s="227"/>
       <c r="T14" s="227"/>
-      <c r="U14" s="26" t="s">
+      <c r="U14" s="227"/>
+      <c r="V14" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="V14" s="26" t="s">
+      <c r="W14" s="26" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V14">
+  <autoFilter ref="A1:W14">
     <sortState ref="A2:P37">
       <sortCondition ref="I1:I37"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1"/>
-    <hyperlink ref="N6" r:id="rId2" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298836null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0369_CCP_NPC Access Banking Cible - action=com.ibm.team.workitem.viewWorkItem&amp;id=298836null"/>
+    <hyperlink ref="O6" r:id="rId2" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298836null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0369_CCP_NPC Access Banking Cible - action=com.ibm.team.workitem.viewWorkItem&amp;id=298836null"/>
     <hyperlink ref="I9" r:id="rId3"/>
-    <hyperlink ref="N9" r:id="rId4" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294337null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00589_PLA_Base Fiscale - action=com.ibm.team.workitem.viewWorkItem&amp;id=294337null"/>
+    <hyperlink ref="O9" r:id="rId4" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294337null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00589_PLA_Base Fiscale - action=com.ibm.team.workitem.viewWorkItem&amp;id=294337null"/>
     <hyperlink ref="I13" r:id="rId5"/>
-    <hyperlink ref="N13" r:id="rId6" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294308null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0231_CRE_DIGICONSO - action=com.ibm.team.workitem.viewWorkItem&amp;id=294308null"/>
+    <hyperlink ref="O13" r:id="rId6" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294308null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0231_CRE_DIGICONSO - action=com.ibm.team.workitem.viewWorkItem&amp;id=294308null"/>
     <hyperlink ref="I5" r:id="rId7"/>
-    <hyperlink ref="N5" r:id="rId8" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294809null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0377_DML_Refonte Ident Auth forte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294809null"/>
+    <hyperlink ref="O5" r:id="rId8" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294809null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0377_DML_Refonte Ident Auth forte - action=com.ibm.team.workitem.viewWorkItem&amp;id=294809null"/>
     <hyperlink ref="I8" r:id="rId9"/>
-    <hyperlink ref="N8" r:id="rId10" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294414null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294414null"/>
+    <hyperlink ref="O8" r:id="rId10" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294414null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294414null"/>
     <hyperlink ref="I11" r:id="rId11"/>
-    <hyperlink ref="N11" r:id="rId12" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302782" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302782"/>
+    <hyperlink ref="O11" r:id="rId12" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=302782" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=302782"/>
     <hyperlink ref="I7" r:id="rId13"/>
-    <hyperlink ref="N7" r:id="rId14" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294406null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0248_PLA_D%C3%A9marche Epargne Patrim. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294406null"/>
+    <hyperlink ref="O7" r:id="rId14" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294406null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0248_PLA_D%C3%A9marche Epargne Patrim. - action=com.ibm.team.workitem.viewWorkItem&amp;id=294406null"/>
     <hyperlink ref="I12" r:id="rId15"/>
-    <hyperlink ref="N12" r:id="rId16" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=310737null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=310737null"/>
+    <hyperlink ref="O12" r:id="rId16" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=310737null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=310737null"/>
     <hyperlink ref="I10" r:id="rId17"/>
-    <hyperlink ref="N10" r:id="rId18" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285909null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0231_CRE_DIGICONSO - action=com.ibm.team.workitem.viewWorkItem&amp;id=285909null"/>
+    <hyperlink ref="O10" r:id="rId18" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=285909null" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0231_CRE_DIGICONSO - action=com.ibm.team.workitem.viewWorkItem&amp;id=285909null"/>
     <hyperlink ref="I3" r:id="rId19"/>
-    <hyperlink ref="N3" r:id="rId20" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=248089nullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=248089nullnullnullnull"/>
+    <hyperlink ref="O3" r:id="rId20" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=248089nullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=248089nullnullnullnull"/>
     <hyperlink ref="I2" r:id="rId21"/>
-    <hyperlink ref="N2" r:id="rId22" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294412nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_T300473 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294412nullnullnullnullnull"/>
+    <hyperlink ref="O2" r:id="rId22" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294412nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_T300473 - action=com.ibm.team.workitem.viewWorkItem&amp;id=294412nullnullnullnullnull"/>
     <hyperlink ref="I14" r:id="rId23"/>
-    <hyperlink ref="N14" r:id="rId24" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294604nullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294604nullnullnullnull"/>
+    <hyperlink ref="O14" r:id="rId24" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=294604nullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=294604nullnullnullnull"/>
     <hyperlink ref="I4" r:id="rId25"/>
-    <hyperlink ref="N4" r:id="rId26" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307394nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0220_DML_Bouton Vert - action=com.ibm.team.workitem.viewWorkItem&amp;id=307394nullnullnullnullnull"/>
+    <hyperlink ref="O4" r:id="rId26" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307394nullnullnullnullnull" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0220_DML_Bouton Vert - action=com.ibm.team.workitem.viewWorkItem&amp;id=307394nullnullnullnullnull"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
@@ -4803,10 +4823,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4821,22 +4841,22 @@
     <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.140625" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="100.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="239"/>
+    <col min="11" max="12" width="52.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="100.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="239"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="162" t="s">
         <v>41</v>
       </c>
@@ -4871,43 +4891,46 @@
         <v>257</v>
       </c>
       <c r="L1" s="178" t="s">
+        <v>374</v>
+      </c>
+      <c r="M1" s="178" t="s">
         <v>262</v>
       </c>
-      <c r="M1" s="171" t="s">
+      <c r="N1" s="171" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="172" t="s">
+      <c r="O1" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="177" t="s">
+      <c r="P1" s="177" t="s">
         <v>219</v>
       </c>
-      <c r="P1" s="178" t="s">
+      <c r="Q1" s="178" t="s">
         <v>258</v>
       </c>
-      <c r="Q1" s="178" t="s">
+      <c r="R1" s="178" t="s">
         <v>253</v>
       </c>
-      <c r="R1" s="173" t="s">
+      <c r="S1" s="173" t="s">
         <v>245</v>
       </c>
-      <c r="S1" s="175" t="s">
+      <c r="T1" s="175" t="s">
         <v>247</v>
       </c>
-      <c r="T1" s="178" t="s">
+      <c r="U1" s="178" t="s">
         <v>261</v>
       </c>
-      <c r="U1" s="174" t="s">
+      <c r="V1" s="174" t="s">
         <v>217</v>
       </c>
-      <c r="V1" s="176" t="s">
+      <c r="W1" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="178" t="s">
+      <c r="X1" s="178" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="179" t="s">
         <v>222</v>
       </c>
@@ -4940,31 +4963,32 @@
       </c>
       <c r="K2" s="180"/>
       <c r="L2" s="180"/>
-      <c r="M2" s="180" t="s">
+      <c r="M2" s="180"/>
+      <c r="N2" s="180" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180" t="s">
-        <v>222</v>
-      </c>
-      <c r="P2" s="231" t="s">
+      <c r="O2" s="180"/>
+      <c r="P2" s="180" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q2" s="231" t="s">
         <v>263</v>
       </c>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="181"/>
+      <c r="R2" s="231"/>
       <c r="S2" s="181"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="179" t="s">
-        <v>222</v>
-      </c>
+      <c r="T2" s="181"/>
+      <c r="U2" s="189"/>
       <c r="V2" s="179" t="s">
+        <v>222</v>
+      </c>
+      <c r="W2" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="239" t="s">
+      <c r="X2" s="239" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="182" t="s">
         <v>73</v>
       </c>
@@ -4998,28 +5022,29 @@
       <c r="K3" s="183"/>
       <c r="L3" s="183"/>
       <c r="M3" s="183"/>
-      <c r="N3" s="183">
+      <c r="N3" s="183"/>
+      <c r="O3" s="183">
         <v>301765</v>
       </c>
-      <c r="O3" s="183" t="s">
-        <v>222</v>
-      </c>
-      <c r="P3" s="232"/>
+      <c r="P3" s="183" t="s">
+        <v>222</v>
+      </c>
       <c r="Q3" s="232"/>
-      <c r="R3" s="184"/>
+      <c r="R3" s="232"/>
       <c r="S3" s="184"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="182" t="s">
+      <c r="T3" s="184"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="V3" s="182" t="s">
-        <v>222</v>
-      </c>
-      <c r="W3" s="239" t="s">
+      <c r="W3" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="X3" s="239" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="185" t="s">
         <v>73</v>
       </c>
@@ -5054,25 +5079,26 @@
       <c r="L4" s="186"/>
       <c r="M4" s="186"/>
       <c r="N4" s="186"/>
-      <c r="O4" s="186" t="s">
+      <c r="O4" s="186"/>
+      <c r="P4" s="186" t="s">
         <v>224</v>
       </c>
-      <c r="P4" s="231"/>
       <c r="Q4" s="231"/>
-      <c r="R4" s="187"/>
+      <c r="R4" s="231"/>
       <c r="S4" s="187"/>
-      <c r="T4" s="189"/>
-      <c r="U4" s="185" t="s">
-        <v>222</v>
-      </c>
+      <c r="T4" s="187"/>
+      <c r="U4" s="189"/>
       <c r="V4" s="185" t="s">
+        <v>222</v>
+      </c>
+      <c r="W4" s="185" t="s">
         <v>116</v>
       </c>
-      <c r="W4" s="239" t="s">
+      <c r="X4" s="239" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="190" t="s">
         <v>73</v>
       </c>
@@ -5105,29 +5131,30 @@
       </c>
       <c r="K5" s="191"/>
       <c r="L5" s="191"/>
-      <c r="M5" s="191" t="s">
+      <c r="M5" s="191"/>
+      <c r="N5" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="N5" s="191"/>
-      <c r="O5" s="191" t="s">
-        <v>222</v>
-      </c>
-      <c r="P5" s="232"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="191" t="s">
+        <v>222</v>
+      </c>
       <c r="Q5" s="232"/>
-      <c r="R5" s="192"/>
+      <c r="R5" s="232"/>
       <c r="S5" s="192"/>
-      <c r="T5" s="204"/>
-      <c r="U5" s="190" t="s">
-        <v>222</v>
-      </c>
+      <c r="T5" s="192"/>
+      <c r="U5" s="204"/>
       <c r="V5" s="190" t="s">
+        <v>222</v>
+      </c>
+      <c r="W5" s="190" t="s">
         <v>229</v>
       </c>
-      <c r="W5" s="239" t="s">
+      <c r="X5" s="239" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="193" t="s">
         <v>222</v>
       </c>
@@ -5160,31 +5187,32 @@
       </c>
       <c r="K6" s="194"/>
       <c r="L6" s="194"/>
-      <c r="M6" s="194" t="s">
+      <c r="M6" s="194"/>
+      <c r="N6" s="194" t="s">
         <v>128</v>
       </c>
-      <c r="N6" s="194">
+      <c r="O6" s="194">
         <v>311370</v>
       </c>
-      <c r="O6" s="194" t="s">
-        <v>222</v>
-      </c>
-      <c r="P6" s="232"/>
+      <c r="P6" s="194" t="s">
+        <v>222</v>
+      </c>
       <c r="Q6" s="232"/>
-      <c r="R6" s="195"/>
+      <c r="R6" s="232"/>
       <c r="S6" s="195"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="193" t="s">
-        <v>222</v>
-      </c>
+      <c r="T6" s="195"/>
+      <c r="U6" s="204"/>
       <c r="V6" s="193" t="s">
         <v>222</v>
       </c>
-      <c r="W6" s="239" t="s">
+      <c r="W6" s="193" t="s">
+        <v>222</v>
+      </c>
+      <c r="X6" s="239" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="196" t="s">
         <v>222</v>
       </c>
@@ -5217,29 +5245,30 @@
       </c>
       <c r="K7" s="197"/>
       <c r="L7" s="197"/>
-      <c r="M7" s="197" t="s">
+      <c r="M7" s="197"/>
+      <c r="N7" s="197" t="s">
         <v>143</v>
       </c>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197" t="s">
+      <c r="O7" s="197"/>
+      <c r="P7" s="197" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="232"/>
       <c r="Q7" s="232"/>
-      <c r="R7" s="198"/>
+      <c r="R7" s="232"/>
       <c r="S7" s="198"/>
-      <c r="T7" s="204"/>
-      <c r="U7" s="196" t="s">
-        <v>222</v>
-      </c>
+      <c r="T7" s="198"/>
+      <c r="U7" s="204"/>
       <c r="V7" s="196" t="s">
+        <v>222</v>
+      </c>
+      <c r="W7" s="196" t="s">
         <v>244</v>
       </c>
-      <c r="W7" s="239" t="s">
+      <c r="X7" s="239" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="199" t="s">
         <v>222</v>
       </c>
@@ -5272,29 +5301,30 @@
       </c>
       <c r="K8" s="200"/>
       <c r="L8" s="200"/>
-      <c r="M8" s="200" t="s">
+      <c r="M8" s="200"/>
+      <c r="N8" s="200" t="s">
         <v>143</v>
       </c>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200" t="s">
-        <v>222</v>
-      </c>
-      <c r="P8" s="232"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="200" t="s">
+        <v>222</v>
+      </c>
       <c r="Q8" s="232"/>
-      <c r="R8" s="201"/>
+      <c r="R8" s="232"/>
       <c r="S8" s="201"/>
-      <c r="T8" s="204"/>
-      <c r="U8" s="199" t="s">
-        <v>222</v>
-      </c>
+      <c r="T8" s="201"/>
+      <c r="U8" s="204"/>
       <c r="V8" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="W8" s="239" t="s">
+      <c r="W8" s="199" t="s">
+        <v>222</v>
+      </c>
+      <c r="X8" s="239" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="202" t="s">
         <v>73</v>
       </c>
@@ -5327,31 +5357,32 @@
       </c>
       <c r="K9" s="203"/>
       <c r="L9" s="203"/>
-      <c r="M9" s="203" t="s">
+      <c r="M9" s="203"/>
+      <c r="N9" s="203" t="s">
         <v>128</v>
       </c>
-      <c r="N9" s="203"/>
-      <c r="O9" s="203" t="s">
-        <v>222</v>
-      </c>
-      <c r="P9" s="232"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203" t="s">
+        <v>222</v>
+      </c>
       <c r="Q9" s="232"/>
-      <c r="R9" s="204">
+      <c r="R9" s="232"/>
+      <c r="S9" s="204">
         <v>43164</v>
       </c>
-      <c r="S9" s="204"/>
       <c r="T9" s="204"/>
-      <c r="U9" s="202" t="s">
-        <v>222</v>
-      </c>
+      <c r="U9" s="204"/>
       <c r="V9" s="202" t="s">
+        <v>222</v>
+      </c>
+      <c r="W9" s="202" t="s">
         <v>243</v>
       </c>
-      <c r="W9" s="239" t="s">
+      <c r="X9" s="239" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="205" t="s">
         <v>103</v>
       </c>
@@ -5382,25 +5413,26 @@
       </c>
       <c r="K10" s="206"/>
       <c r="L10" s="206"/>
-      <c r="M10" s="206" t="s">
+      <c r="M10" s="206"/>
+      <c r="N10" s="206" t="s">
         <v>122</v>
       </c>
-      <c r="N10" s="206"/>
       <c r="O10" s="206"/>
-      <c r="P10" s="233"/>
+      <c r="P10" s="206"/>
       <c r="Q10" s="233"/>
-      <c r="R10" s="207">
+      <c r="R10" s="233"/>
+      <c r="S10" s="207">
         <v>43166</v>
       </c>
-      <c r="S10" s="207"/>
       <c r="T10" s="207"/>
-      <c r="U10" s="205"/>
+      <c r="U10" s="207"/>
       <c r="V10" s="205"/>
-      <c r="W10" s="239" t="s">
+      <c r="W10" s="205"/>
+      <c r="X10" s="239" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="208" t="s">
         <v>103</v>
       </c>
@@ -5431,27 +5463,28 @@
       </c>
       <c r="K11" s="209"/>
       <c r="L11" s="209"/>
-      <c r="M11" s="209" t="s">
+      <c r="M11" s="209"/>
+      <c r="N11" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="N11" s="209"/>
-      <c r="O11" s="209" t="s">
+      <c r="O11" s="209"/>
+      <c r="P11" s="209" t="s">
         <v>224</v>
       </c>
-      <c r="P11" s="234"/>
       <c r="Q11" s="234"/>
-      <c r="R11" s="210">
+      <c r="R11" s="234"/>
+      <c r="S11" s="210">
         <v>43166</v>
       </c>
-      <c r="S11" s="210"/>
-      <c r="T11" s="213"/>
-      <c r="U11" s="208"/>
+      <c r="T11" s="210"/>
+      <c r="U11" s="213"/>
       <c r="V11" s="208"/>
-      <c r="W11" s="239" t="s">
+      <c r="W11" s="208"/>
+      <c r="X11" s="239" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="211" t="s">
         <v>73</v>
       </c>
@@ -5482,25 +5515,26 @@
       </c>
       <c r="K12" s="212"/>
       <c r="L12" s="212"/>
-      <c r="M12" s="212" t="s">
+      <c r="M12" s="212"/>
+      <c r="N12" s="212" t="s">
         <v>127</v>
       </c>
-      <c r="N12" s="212"/>
       <c r="O12" s="212"/>
-      <c r="P12" s="234"/>
+      <c r="P12" s="212"/>
       <c r="Q12" s="234"/>
-      <c r="R12" s="213">
+      <c r="R12" s="234"/>
+      <c r="S12" s="213">
         <v>43166</v>
       </c>
-      <c r="S12" s="213"/>
       <c r="T12" s="213"/>
-      <c r="U12" s="211"/>
+      <c r="U12" s="213"/>
       <c r="V12" s="211"/>
-      <c r="W12" s="239" t="s">
+      <c r="W12" s="211"/>
+      <c r="X12" s="239" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="188" t="s">
         <v>274</v>
       </c>
@@ -5534,40 +5568,41 @@
       <c r="K13" s="157" t="s">
         <v>278</v>
       </c>
-      <c r="L13" s="189">
+      <c r="L13" s="157"/>
+      <c r="M13" s="189">
         <v>43139</v>
       </c>
-      <c r="M13" s="157" t="s">
+      <c r="N13" s="157" t="s">
         <v>269</v>
       </c>
-      <c r="N13" s="240">
+      <c r="O13" s="240">
         <v>298842</v>
       </c>
-      <c r="O13" s="157" t="s">
+      <c r="P13" s="157" t="s">
         <v>224</v>
       </c>
-      <c r="P13" s="157" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q13" s="189"/>
-      <c r="R13" s="189">
+      <c r="Q13" s="157" t="s">
+        <v>222</v>
+      </c>
+      <c r="R13" s="189"/>
+      <c r="S13" s="189">
         <v>43105</v>
       </c>
-      <c r="S13" s="189">
+      <c r="T13" s="189">
         <v>43255</v>
       </c>
-      <c r="T13" s="189"/>
-      <c r="U13" s="188" t="s">
+      <c r="U13" s="189"/>
+      <c r="V13" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="V13" s="188" t="s">
-        <v>222</v>
-      </c>
-      <c r="W13" s="157" t="s">
+      <c r="W13" s="188" t="s">
+        <v>222</v>
+      </c>
+      <c r="X13" s="157" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="235" t="s">
         <v>53</v>
       </c>
@@ -5601,42 +5636,43 @@
       <c r="K14" s="236" t="s">
         <v>268</v>
       </c>
-      <c r="L14" s="238">
+      <c r="L14" s="236"/>
+      <c r="M14" s="238">
         <v>43194</v>
       </c>
-      <c r="M14" s="236" t="s">
+      <c r="N14" s="236" t="s">
         <v>269</v>
       </c>
-      <c r="N14" s="237">
+      <c r="O14" s="237">
         <v>292305</v>
       </c>
-      <c r="O14" s="236" t="s">
-        <v>222</v>
-      </c>
       <c r="P14" s="236" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="236" t="s">
         <v>270</v>
       </c>
-      <c r="Q14" s="238"/>
-      <c r="R14" s="238">
+      <c r="R14" s="238"/>
+      <c r="S14" s="238">
         <v>43067</v>
       </c>
-      <c r="S14" s="238">
+      <c r="T14" s="238">
         <v>43217</v>
       </c>
-      <c r="T14" s="238">
+      <c r="U14" s="238">
         <v>43223</v>
       </c>
-      <c r="U14" s="235" t="s">
+      <c r="V14" s="235" t="s">
         <v>271</v>
       </c>
-      <c r="V14" s="235" t="s">
+      <c r="W14" s="235" t="s">
         <v>272</v>
       </c>
-      <c r="W14" s="236" t="s">
+      <c r="X14" s="236" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="188" t="s">
         <v>279</v>
       </c>
@@ -5670,40 +5706,41 @@
       <c r="K15" s="157" t="s">
         <v>287</v>
       </c>
-      <c r="L15" s="189">
+      <c r="L15" s="157"/>
+      <c r="M15" s="189">
         <v>43109</v>
       </c>
-      <c r="M15" s="157" t="s">
+      <c r="N15" s="157" t="s">
         <v>288</v>
       </c>
-      <c r="N15" s="240">
+      <c r="O15" s="240">
         <v>307527</v>
       </c>
-      <c r="O15" s="157" t="s">
-        <v>222</v>
-      </c>
       <c r="P15" s="157" t="s">
         <v>222</v>
       </c>
-      <c r="Q15" s="189"/>
-      <c r="R15" s="189">
+      <c r="Q15" s="157" t="s">
+        <v>222</v>
+      </c>
+      <c r="R15" s="189"/>
+      <c r="S15" s="189">
         <v>43144</v>
       </c>
-      <c r="S15" s="189">
+      <c r="T15" s="189">
         <v>43255</v>
       </c>
-      <c r="T15" s="189"/>
-      <c r="U15" s="188" t="s">
+      <c r="U15" s="189"/>
+      <c r="V15" s="188" t="s">
         <v>289</v>
       </c>
-      <c r="V15" s="188" t="s">
+      <c r="W15" s="188" t="s">
         <v>290</v>
       </c>
-      <c r="W15" s="157" t="s">
+      <c r="X15" s="157" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="188" t="s">
         <v>274</v>
       </c>
@@ -5737,38 +5774,39 @@
       <c r="K16" s="157" t="s">
         <v>295</v>
       </c>
-      <c r="L16" s="189">
+      <c r="L16" s="157"/>
+      <c r="M16" s="189">
         <v>43118</v>
       </c>
-      <c r="M16" s="157" t="s">
+      <c r="N16" s="157" t="s">
         <v>288</v>
       </c>
-      <c r="N16" s="240">
+      <c r="O16" s="240">
         <v>326691</v>
       </c>
-      <c r="O16" s="157" t="s">
+      <c r="P16" s="157" t="s">
         <v>224</v>
       </c>
-      <c r="P16" s="157" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="189">
+      <c r="Q16" s="157" t="s">
+        <v>222</v>
+      </c>
+      <c r="R16" s="189"/>
+      <c r="S16" s="189">
         <v>43238</v>
       </c>
-      <c r="S16" s="189"/>
       <c r="T16" s="189"/>
-      <c r="U16" s="188" t="s">
+      <c r="U16" s="189"/>
+      <c r="V16" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="V16" s="188" t="s">
+      <c r="W16" s="188" t="s">
         <v>296</v>
       </c>
-      <c r="W16" s="157" t="s">
+      <c r="X16" s="157" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="241" t="s">
         <v>73</v>
       </c>
@@ -5802,42 +5840,43 @@
       <c r="K17" s="242" t="s">
         <v>303</v>
       </c>
-      <c r="L17" s="244">
+      <c r="L17" s="242"/>
+      <c r="M17" s="244">
         <v>43227</v>
       </c>
-      <c r="M17" s="242" t="s">
+      <c r="N17" s="242" t="s">
         <v>269</v>
       </c>
-      <c r="N17" s="243">
+      <c r="O17" s="243">
         <v>321010</v>
       </c>
-      <c r="O17" s="242" t="s">
-        <v>222</v>
-      </c>
       <c r="P17" s="242" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q17" s="242" t="s">
         <v>259</v>
       </c>
-      <c r="Q17" s="244">
+      <c r="R17" s="244">
         <v>43202</v>
       </c>
-      <c r="R17" s="244">
+      <c r="S17" s="244">
         <v>43203</v>
       </c>
-      <c r="S17" s="244">
+      <c r="T17" s="244">
         <v>43255</v>
       </c>
-      <c r="T17" s="244"/>
-      <c r="U17" s="241" t="s">
+      <c r="U17" s="244"/>
+      <c r="V17" s="241" t="s">
         <v>304</v>
       </c>
-      <c r="V17" s="241" t="s">
-        <v>222</v>
-      </c>
-      <c r="W17" s="242" t="s">
+      <c r="W17" s="241" t="s">
+        <v>222</v>
+      </c>
+      <c r="X17" s="242" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="188" t="s">
         <v>73</v>
       </c>
@@ -5871,42 +5910,43 @@
       <c r="K18" s="157" t="s">
         <v>311</v>
       </c>
-      <c r="L18" s="189">
+      <c r="L18" s="157"/>
+      <c r="M18" s="189">
         <v>43200</v>
       </c>
-      <c r="M18" s="157" t="s">
+      <c r="N18" s="157" t="s">
         <v>312</v>
       </c>
-      <c r="N18" s="240">
+      <c r="O18" s="240">
         <v>321568</v>
       </c>
-      <c r="O18" s="157" t="s">
+      <c r="P18" s="157" t="s">
         <v>224</v>
       </c>
-      <c r="P18" s="157" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q18" s="189">
-        <v>43207</v>
+      <c r="Q18" s="157" t="s">
+        <v>222</v>
       </c>
       <c r="R18" s="189">
         <v>43207</v>
       </c>
       <c r="S18" s="189">
+        <v>43207</v>
+      </c>
+      <c r="T18" s="189">
         <v>43255</v>
       </c>
-      <c r="T18" s="189"/>
-      <c r="U18" s="188" t="s">
+      <c r="U18" s="189"/>
+      <c r="V18" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="V18" s="188" t="s">
-        <v>222</v>
-      </c>
-      <c r="W18" s="157" t="s">
+      <c r="W18" s="188" t="s">
+        <v>222</v>
+      </c>
+      <c r="X18" s="157" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="188" t="s">
         <v>222</v>
       </c>
@@ -5940,40 +5980,41 @@
       <c r="K19" s="157" t="s">
         <v>318</v>
       </c>
-      <c r="L19" s="189">
+      <c r="L19" s="157"/>
+      <c r="M19" s="189">
         <v>43299</v>
       </c>
-      <c r="M19" s="157" t="s">
+      <c r="N19" s="157" t="s">
         <v>319</v>
       </c>
-      <c r="N19" s="240">
+      <c r="O19" s="240">
         <v>322958</v>
       </c>
-      <c r="O19" s="157" t="s">
-        <v>222</v>
-      </c>
       <c r="P19" s="157" t="s">
         <v>222</v>
       </c>
-      <c r="Q19" s="189">
+      <c r="Q19" s="157" t="s">
+        <v>222</v>
+      </c>
+      <c r="R19" s="189">
         <v>43213</v>
       </c>
-      <c r="R19" s="189">
+      <c r="S19" s="189">
         <v>43214</v>
       </c>
-      <c r="S19" s="189"/>
       <c r="T19" s="189"/>
-      <c r="U19" s="188" t="s">
+      <c r="U19" s="189"/>
+      <c r="V19" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="V19" s="188" t="s">
-        <v>222</v>
-      </c>
-      <c r="W19" s="157" t="s">
+      <c r="W19" s="188" t="s">
+        <v>222</v>
+      </c>
+      <c r="X19" s="157" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="235" t="s">
         <v>73</v>
       </c>
@@ -6007,42 +6048,43 @@
       <c r="K20" s="236" t="s">
         <v>324</v>
       </c>
-      <c r="L20" s="238">
+      <c r="L20" s="236"/>
+      <c r="M20" s="238">
         <v>43196</v>
       </c>
-      <c r="M20" s="236" t="s">
+      <c r="N20" s="236" t="s">
         <v>269</v>
       </c>
-      <c r="N20" s="237">
+      <c r="O20" s="237">
         <v>320997</v>
       </c>
-      <c r="O20" s="236" t="s">
+      <c r="P20" s="236" t="s">
         <v>224</v>
       </c>
-      <c r="P20" s="236" t="s">
+      <c r="Q20" s="236" t="s">
         <v>270</v>
       </c>
-      <c r="Q20" s="238">
+      <c r="R20" s="238">
         <v>43217</v>
       </c>
-      <c r="R20" s="238">
+      <c r="S20" s="238">
         <v>43203</v>
       </c>
-      <c r="S20" s="238"/>
-      <c r="T20" s="238">
+      <c r="T20" s="238"/>
+      <c r="U20" s="238">
         <v>43214</v>
       </c>
-      <c r="U20" s="235" t="s">
+      <c r="V20" s="235" t="s">
         <v>271</v>
       </c>
-      <c r="V20" s="235" t="s">
-        <v>222</v>
-      </c>
-      <c r="W20" s="236" t="s">
+      <c r="W20" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="X20" s="236" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="188" t="s">
         <v>73</v>
       </c>
@@ -6076,44 +6118,45 @@
       <c r="K21" s="157" t="s">
         <v>330</v>
       </c>
-      <c r="L21" s="189">
+      <c r="L21" s="157"/>
+      <c r="M21" s="189">
         <v>43242</v>
       </c>
-      <c r="M21" s="157" t="s">
+      <c r="N21" s="157" t="s">
         <v>269</v>
       </c>
-      <c r="N21" s="240">
+      <c r="O21" s="240">
         <v>327207</v>
       </c>
-      <c r="O21" s="157" t="s">
-        <v>222</v>
-      </c>
       <c r="P21" s="157" t="s">
         <v>222</v>
       </c>
-      <c r="Q21" s="189">
+      <c r="Q21" s="157" t="s">
+        <v>222</v>
+      </c>
+      <c r="R21" s="189">
         <v>43242</v>
       </c>
-      <c r="R21" s="189">
+      <c r="S21" s="189">
         <v>43243</v>
       </c>
-      <c r="S21" s="189">
+      <c r="T21" s="189">
         <v>43255</v>
       </c>
-      <c r="T21" s="189">
+      <c r="U21" s="189">
         <v>43259</v>
       </c>
-      <c r="U21" s="188" t="s">
+      <c r="V21" s="188" t="s">
         <v>331</v>
       </c>
-      <c r="V21" s="188" t="s">
-        <v>222</v>
-      </c>
-      <c r="W21" s="157" t="s">
+      <c r="W21" s="188" t="s">
+        <v>222</v>
+      </c>
+      <c r="X21" s="157" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="241" t="s">
         <v>53</v>
       </c>
@@ -6147,42 +6190,43 @@
       <c r="K22" s="242" t="s">
         <v>339</v>
       </c>
-      <c r="L22" s="244">
+      <c r="L22" s="242"/>
+      <c r="M22" s="244">
         <v>43272</v>
       </c>
-      <c r="M22" s="242" t="s">
+      <c r="N22" s="242" t="s">
         <v>312</v>
       </c>
-      <c r="N22" s="243">
+      <c r="O22" s="243">
         <v>335060</v>
       </c>
-      <c r="O22" s="242" t="s">
-        <v>222</v>
-      </c>
       <c r="P22" s="242" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q22" s="242" t="s">
         <v>259</v>
       </c>
-      <c r="Q22" s="244">
+      <c r="R22" s="244">
         <v>43273</v>
       </c>
-      <c r="R22" s="244">
+      <c r="S22" s="244">
         <v>43276</v>
       </c>
-      <c r="S22" s="244"/>
-      <c r="T22" s="244">
+      <c r="T22" s="244"/>
+      <c r="U22" s="244">
         <v>43301</v>
       </c>
-      <c r="U22" s="241" t="s">
+      <c r="V22" s="241" t="s">
         <v>113</v>
       </c>
-      <c r="V22" s="241" t="s">
-        <v>222</v>
-      </c>
-      <c r="W22" s="242" t="s">
+      <c r="W22" s="241" t="s">
+        <v>222</v>
+      </c>
+      <c r="X22" s="242" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="235" t="s">
         <v>73</v>
       </c>
@@ -6216,42 +6260,43 @@
       <c r="K23" s="236" t="s">
         <v>345</v>
       </c>
-      <c r="L23" s="238">
+      <c r="L23" s="236"/>
+      <c r="M23" s="238">
         <v>43245</v>
       </c>
-      <c r="M23" s="236" t="s">
+      <c r="N23" s="236" t="s">
         <v>346</v>
       </c>
-      <c r="N23" s="237">
+      <c r="O23" s="237">
         <v>326040</v>
       </c>
-      <c r="O23" s="236" t="s">
+      <c r="P23" s="236" t="s">
         <v>224</v>
       </c>
-      <c r="P23" s="236" t="s">
+      <c r="Q23" s="236" t="s">
         <v>270</v>
       </c>
-      <c r="Q23" s="238">
+      <c r="R23" s="238">
         <v>43276</v>
       </c>
-      <c r="R23" s="238">
+      <c r="S23" s="238">
         <v>43236</v>
       </c>
-      <c r="S23" s="238"/>
-      <c r="T23" s="238">
+      <c r="T23" s="238"/>
+      <c r="U23" s="238">
         <v>43245</v>
       </c>
-      <c r="U23" s="235" t="s">
+      <c r="V23" s="235" t="s">
         <v>271</v>
       </c>
-      <c r="V23" s="235" t="s">
+      <c r="W23" s="235" t="s">
         <v>347</v>
       </c>
-      <c r="W23" s="236" t="s">
+      <c r="X23" s="236" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="235" t="s">
         <v>50</v>
       </c>
@@ -6285,42 +6330,43 @@
       <c r="K24" s="236" t="s">
         <v>354</v>
       </c>
-      <c r="L24" s="238">
+      <c r="L24" s="236"/>
+      <c r="M24" s="238">
         <v>43258</v>
       </c>
-      <c r="M24" s="236" t="s">
+      <c r="N24" s="236" t="s">
         <v>346</v>
       </c>
-      <c r="N24" s="237">
+      <c r="O24" s="237">
         <v>315352</v>
       </c>
-      <c r="O24" s="236" t="s">
-        <v>222</v>
-      </c>
       <c r="P24" s="236" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q24" s="236" t="s">
         <v>270</v>
       </c>
-      <c r="Q24" s="238">
+      <c r="R24" s="238">
         <v>43276</v>
       </c>
-      <c r="R24" s="238">
+      <c r="S24" s="238">
         <v>43178</v>
       </c>
-      <c r="S24" s="238"/>
-      <c r="T24" s="238">
+      <c r="T24" s="238"/>
+      <c r="U24" s="238">
         <v>43178</v>
       </c>
-      <c r="U24" s="235" t="s">
+      <c r="V24" s="235" t="s">
         <v>271</v>
       </c>
-      <c r="V24" s="235" t="s">
+      <c r="W24" s="235" t="s">
         <v>355</v>
       </c>
-      <c r="W24" s="236" t="s">
+      <c r="X24" s="236" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="241" t="s">
         <v>73</v>
       </c>
@@ -6354,42 +6400,43 @@
       <c r="K25" s="242" t="s">
         <v>359</v>
       </c>
-      <c r="L25" s="244">
+      <c r="L25" s="242"/>
+      <c r="M25" s="244">
         <v>43238</v>
       </c>
-      <c r="M25" s="242" t="s">
+      <c r="N25" s="242" t="s">
         <v>269</v>
       </c>
-      <c r="N25" s="243">
+      <c r="O25" s="243">
         <v>317618</v>
       </c>
-      <c r="O25" s="242" t="s">
-        <v>222</v>
-      </c>
       <c r="P25" s="242" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q25" s="242" t="s">
         <v>259</v>
       </c>
-      <c r="Q25" s="244">
+      <c r="R25" s="244">
         <v>43276</v>
       </c>
-      <c r="R25" s="244">
+      <c r="S25" s="244">
         <v>43187</v>
       </c>
-      <c r="S25" s="244"/>
-      <c r="T25" s="244">
+      <c r="T25" s="244"/>
+      <c r="U25" s="244">
         <v>43238</v>
       </c>
-      <c r="U25" s="241" t="s">
+      <c r="V25" s="241" t="s">
         <v>271</v>
       </c>
-      <c r="V25" s="241" t="s">
+      <c r="W25" s="241" t="s">
         <v>360</v>
       </c>
-      <c r="W25" s="242" t="s">
+      <c r="X25" s="242" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="205" t="s">
         <v>222</v>
       </c>
@@ -6423,36 +6470,37 @@
       <c r="K26" s="245" t="s">
         <v>278</v>
       </c>
-      <c r="L26" s="207">
+      <c r="L26" s="245"/>
+      <c r="M26" s="207">
         <v>42957</v>
       </c>
-      <c r="M26" s="245" t="s">
+      <c r="N26" s="245" t="s">
         <v>364</v>
       </c>
-      <c r="N26" s="245"/>
-      <c r="O26" s="245" t="s">
+      <c r="O26" s="245"/>
+      <c r="P26" s="245" t="s">
         <v>224</v>
       </c>
-      <c r="P26" s="245" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q26" s="207">
+      <c r="Q26" s="245" t="s">
+        <v>222</v>
+      </c>
+      <c r="R26" s="207">
         <v>43294</v>
       </c>
-      <c r="R26" s="207"/>
       <c r="S26" s="207"/>
       <c r="T26" s="207"/>
-      <c r="U26" s="205" t="s">
-        <v>222</v>
-      </c>
+      <c r="U26" s="207"/>
       <c r="V26" s="205" t="s">
         <v>222</v>
       </c>
-      <c r="W26" s="245" t="s">
+      <c r="W26" s="205" t="s">
+        <v>222</v>
+      </c>
+      <c r="X26" s="245" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="205" t="s">
         <v>73</v>
       </c>
@@ -6486,36 +6534,37 @@
       <c r="K27" s="245" t="s">
         <v>367</v>
       </c>
-      <c r="L27" s="207">
+      <c r="L27" s="245"/>
+      <c r="M27" s="207">
         <v>43258</v>
       </c>
-      <c r="M27" s="245" t="s">
+      <c r="N27" s="245" t="s">
         <v>312</v>
       </c>
-      <c r="N27" s="245"/>
-      <c r="O27" s="245" t="s">
+      <c r="O27" s="245"/>
+      <c r="P27" s="245" t="s">
         <v>224</v>
       </c>
-      <c r="P27" s="245" t="s">
+      <c r="Q27" s="245" t="s">
         <v>259</v>
       </c>
-      <c r="Q27" s="207">
+      <c r="R27" s="207">
         <v>43304</v>
       </c>
-      <c r="R27" s="207"/>
       <c r="S27" s="207"/>
       <c r="T27" s="207"/>
-      <c r="U27" s="205" t="s">
-        <v>222</v>
-      </c>
+      <c r="U27" s="207"/>
       <c r="V27" s="205" t="s">
         <v>222</v>
       </c>
-      <c r="W27" s="245" t="s">
+      <c r="W27" s="205" t="s">
+        <v>222</v>
+      </c>
+      <c r="X27" s="245" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="205" t="s">
         <v>274</v>
       </c>
@@ -6549,50 +6598,51 @@
       <c r="K28" s="245" t="s">
         <v>372</v>
       </c>
-      <c r="L28" s="207">
+      <c r="L28" s="245"/>
+      <c r="M28" s="207">
         <v>43301</v>
       </c>
-      <c r="M28" s="245" t="s">
+      <c r="N28" s="245" t="s">
         <v>373</v>
       </c>
-      <c r="N28" s="245"/>
-      <c r="O28" s="245" t="s">
-        <v>222</v>
-      </c>
+      <c r="O28" s="245"/>
       <c r="P28" s="245" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q28" s="245" t="s">
         <v>263</v>
       </c>
-      <c r="Q28" s="207">
+      <c r="R28" s="207">
         <v>43304</v>
       </c>
-      <c r="R28" s="207"/>
       <c r="S28" s="207"/>
       <c r="T28" s="207"/>
-      <c r="U28" s="205" t="s">
-        <v>222</v>
-      </c>
+      <c r="U28" s="207"/>
       <c r="V28" s="205" t="s">
         <v>222</v>
       </c>
-      <c r="W28" s="245" t="s">
+      <c r="W28" s="205" t="s">
+        <v>222</v>
+      </c>
+      <c r="X28" s="245" t="s">
         <v>273</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="G1:G12"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Erreur Action" error="Valeur pour l'action interdite" sqref="P13:P28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Erreur Action" error="Valeur pour l'action interdite" sqref="Q13:Q28">
       <formula1>"A créer,A vérifier,,A assembler,A clôturer,A abandonner,A relancer"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
     <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301765" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301765"/>
+    <hyperlink ref="O3" r:id="rId3" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=301765" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=301765"/>
     <hyperlink ref="I4" r:id="rId4"/>
     <hyperlink ref="I5" r:id="rId5"/>
     <hyperlink ref="I6" r:id="rId6"/>
-    <hyperlink ref="N6" r:id="rId7" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=311370" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=311370"/>
+    <hyperlink ref="O6" r:id="rId7" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=311370" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/Support NICE - action=com.ibm.team.workitem.viewWorkItem&amp;id=311370"/>
     <hyperlink ref="I7" r:id="rId8"/>
     <hyperlink ref="I8" r:id="rId9"/>
     <hyperlink ref="I9" r:id="rId10"/>
@@ -6600,31 +6650,31 @@
     <hyperlink ref="I11" r:id="rId12"/>
     <hyperlink ref="I12" r:id="rId13"/>
     <hyperlink ref="I13" r:id="rId14" display="Lot 295711"/>
-    <hyperlink ref="N13" r:id="rId15" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298842" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJT_SDJ_PE000133 - action=com.ibm.team.workitem.viewWorkItem&amp;id=298842"/>
+    <hyperlink ref="O13" r:id="rId15" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=298842" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJT_SDJ_PE000133 - action=com.ibm.team.workitem.viewWorkItem&amp;id=298842"/>
     <hyperlink ref="I14" r:id="rId16"/>
-    <hyperlink ref="N14" r:id="rId17" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292305" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=292305"/>
+    <hyperlink ref="O14" r:id="rId17" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=292305" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFMKRT_MDP_Ma Carte - action=com.ibm.team.workitem.viewWorkItem&amp;id=292305"/>
     <hyperlink ref="I15" r:id="rId18"/>
-    <hyperlink ref="N15" r:id="rId19" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307527" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000018_GSI PLA Titres - action=com.ibm.team.workitem.viewWorkItem&amp;id=307527"/>
+    <hyperlink ref="O15" r:id="rId19" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=307527" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000018_GSI PLA Titres - action=com.ibm.team.workitem.viewWorkItem&amp;id=307527"/>
     <hyperlink ref="I16" r:id="rId20"/>
-    <hyperlink ref="N16" r:id="rId21" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=326691" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BE0249 - Programme C3 - Taskforce API - action=com.ibm.team.workitem.viewWorkItem&amp;id=326691"/>
+    <hyperlink ref="O16" r:id="rId21" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=326691" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BE0249 - Programme C3 - Taskforce API - action=com.ibm.team.workitem.viewWorkItem&amp;id=326691"/>
     <hyperlink ref="I17" r:id="rId22"/>
-    <hyperlink ref="N17" r:id="rId23" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=321010" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00935_TRV_Montée version BDOC - action=com.ibm.team.workitem.viewWorkItem&amp;id=321010"/>
+    <hyperlink ref="O17" r:id="rId23" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=321010" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00935_TRV_Montée version BDOC - action=com.ibm.team.workitem.viewWorkItem&amp;id=321010"/>
     <hyperlink ref="I18" r:id="rId24"/>
-    <hyperlink ref="N18" r:id="rId25" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=321568" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00929_TRV_Migration sources Geide - action=com.ibm.team.workitem.viewWorkItem&amp;id=321568"/>
+    <hyperlink ref="O18" r:id="rId25" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=321568" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00929_TRV_Migration sources Geide - action=com.ibm.team.workitem.viewWorkItem&amp;id=321568"/>
     <hyperlink ref="I19" r:id="rId26"/>
-    <hyperlink ref="N19" r:id="rId27" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=322958" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00616_MKT_Prépa et CR entretiens - action=com.ibm.team.workitem.viewWorkItem&amp;id=322958"/>
+    <hyperlink ref="O19" r:id="rId27" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=322958" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_P00616_MKT_Prépa et CR entretiens - action=com.ibm.team.workitem.viewWorkItem&amp;id=322958"/>
     <hyperlink ref="I20" r:id="rId28"/>
-    <hyperlink ref="N20" r:id="rId29" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=320997" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0437_PLA_Process epargn patrim PCO - action=com.ibm.team.workitem.viewWorkItem&amp;id=320997"/>
+    <hyperlink ref="O20" r:id="rId29" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=320997" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0437_PLA_Process epargn patrim PCO - action=com.ibm.team.workitem.viewWorkItem&amp;id=320997"/>
     <hyperlink ref="I21" r:id="rId30"/>
-    <hyperlink ref="N21" r:id="rId31" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=327207" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFCC20_MKT_Comm client Etape 2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=327207"/>
+    <hyperlink ref="O21" r:id="rId31" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=327207" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFCC20_MKT_Comm client Etape 2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=327207"/>
     <hyperlink ref="I22" r:id="rId32"/>
-    <hyperlink ref="N22" r:id="rId33" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=335060" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0379_MDP_DSP2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=335060"/>
+    <hyperlink ref="O22" r:id="rId33" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=335060" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0379_MDP_DSP2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=335060"/>
     <hyperlink ref="I23" r:id="rId34"/>
-    <hyperlink ref="N23" r:id="rId35" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=326040" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0597_DML_Signature Electron AGILOR - action=com.ibm.team.workitem.viewWorkItem&amp;id=326040"/>
+    <hyperlink ref="O23" r:id="rId35" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=326040" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0597_DML_Signature Electron AGILOR - action=com.ibm.team.workitem.viewWorkItem&amp;id=326040"/>
     <hyperlink ref="I24" r:id="rId36"/>
-    <hyperlink ref="N24" r:id="rId37" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=315352" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BEC309_DML_API sur étagère - action=com.ibm.team.workitem.viewWorkItem&amp;id=315352"/>
+    <hyperlink ref="O24" r:id="rId37" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=315352" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BEC309_DML_API sur étagère - action=com.ibm.team.workitem.viewWorkItem&amp;id=315352"/>
     <hyperlink ref="I25" r:id="rId38"/>
-    <hyperlink ref="N25" r:id="rId39" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=317618" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=317618"/>
+    <hyperlink ref="O25" r:id="rId39" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=317618" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000061 - action=com.ibm.team.workitem.viewWorkItem&amp;id=317618"/>
     <hyperlink ref="I26" r:id="rId40"/>
     <hyperlink ref="I27" r:id="rId41"/>
     <hyperlink ref="I28" r:id="rId42"/>
